--- a/data_year/zb/科技/测绘资料提供情况.xlsx
+++ b/data_year/zb/科技/测绘资料提供情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,611 +478,324 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>190233</v>
+        <v>143753</v>
       </c>
       <c r="C2" t="n">
-        <v>122961</v>
+        <v>74417</v>
       </c>
       <c r="D2" t="n">
-        <v>34399</v>
+        <v>53064</v>
       </c>
       <c r="E2" t="n">
-        <v>26975</v>
+        <v>6185</v>
       </c>
       <c r="F2" t="n">
-        <v>1023936</v>
+        <v>395088</v>
       </c>
       <c r="G2" t="n">
-        <v>34399</v>
+        <v>53064</v>
       </c>
       <c r="H2" t="n">
-        <v>53639</v>
+        <v>259973</v>
       </c>
       <c r="I2" t="n">
-        <v>128287</v>
+        <v>631831</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>243308</v>
+        <v>151035</v>
       </c>
       <c r="C3" t="n">
-        <v>132019</v>
+        <v>56911</v>
       </c>
       <c r="D3" t="n">
-        <v>20708</v>
+        <v>61590</v>
       </c>
       <c r="E3" t="n">
-        <v>30519</v>
+        <v>9279</v>
       </c>
       <c r="F3" t="n">
-        <v>807401</v>
-      </c>
-      <c r="G3" t="n">
-        <v>20708</v>
-      </c>
+        <v>451513</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>54066</v>
+        <v>178232</v>
       </c>
       <c r="I3" t="n">
-        <v>372444</v>
+        <v>514225</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184853</v>
+        <v>92086</v>
       </c>
       <c r="C4" t="n">
-        <v>136930</v>
+        <v>51180</v>
       </c>
       <c r="D4" t="n">
-        <v>313598</v>
+        <v>171252</v>
       </c>
       <c r="E4" t="n">
-        <v>5399</v>
+        <v>18291</v>
       </c>
       <c r="F4" t="n">
-        <v>695896</v>
-      </c>
-      <c r="G4" t="n">
-        <v>313598</v>
-      </c>
+        <v>342550</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>65568</v>
+        <v>260513</v>
       </c>
       <c r="I4" t="n">
-        <v>302728</v>
+        <v>3727402.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>195642</v>
+        <v>69353</v>
       </c>
       <c r="C5" t="n">
-        <v>124309</v>
+        <v>38500</v>
       </c>
       <c r="D5" t="n">
-        <v>9621</v>
+        <v>26218</v>
       </c>
       <c r="E5" t="n">
-        <v>5240</v>
+        <v>4021</v>
       </c>
       <c r="F5" t="n">
-        <v>693979</v>
-      </c>
-      <c r="G5" t="n">
-        <v>9621</v>
-      </c>
+        <v>302532</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>147658</v>
+        <v>257559</v>
       </c>
       <c r="I5" t="n">
-        <v>446685</v>
+        <v>462179.868164063</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>195363</v>
+        <v>74677</v>
       </c>
       <c r="C6" t="n">
-        <v>138217</v>
+        <v>37153</v>
       </c>
       <c r="D6" t="n">
-        <v>9607</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2597</v>
-      </c>
+        <v>29758</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>795902</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9607</v>
-      </c>
+        <v>289570</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>100737</v>
+        <v>141209</v>
       </c>
       <c r="I6" t="n">
-        <v>377833</v>
+        <v>194590.068359375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>159668</v>
+        <v>67030</v>
       </c>
       <c r="C7" t="n">
-        <v>132853</v>
+        <v>1190135</v>
       </c>
       <c r="D7" t="n">
-        <v>5189</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4733</v>
-      </c>
+        <v>48399</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>658939</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5189</v>
-      </c>
+        <v>1415284</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>70843</v>
+        <v>114822</v>
       </c>
       <c r="I7" t="n">
-        <v>351882</v>
+        <v>1230860.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>183789</v>
+        <v>59849</v>
       </c>
       <c r="C8" t="n">
-        <v>125054</v>
+        <v>35184</v>
       </c>
       <c r="D8" t="n">
-        <v>29703</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4420</v>
-      </c>
+        <v>25841</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>614425</v>
-      </c>
-      <c r="G8" t="n">
-        <v>29703</v>
-      </c>
+        <v>247700</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>152255</v>
+        <v>205487</v>
       </c>
       <c r="I8" t="n">
-        <v>525403</v>
+        <v>904223.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>149847</v>
+        <v>41369</v>
       </c>
       <c r="C9" t="n">
-        <v>111447</v>
+        <v>29728</v>
       </c>
       <c r="D9" t="n">
-        <v>10285</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5465</v>
-      </c>
+        <v>646724</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>629307</v>
-      </c>
-      <c r="G9" t="n">
-        <v>10285</v>
-      </c>
+        <v>252033</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>153334</v>
+        <v>266511</v>
       </c>
       <c r="I9" t="n">
-        <v>361615</v>
+        <v>770524.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164585</v>
+        <v>38246</v>
       </c>
       <c r="C10" t="n">
-        <v>116944</v>
+        <v>22039</v>
       </c>
       <c r="D10" t="n">
-        <v>32774</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3213</v>
-      </c>
+        <v>5006048</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>523036</v>
-      </c>
-      <c r="G10" t="n">
-        <v>32774</v>
-      </c>
+        <v>264558</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>178353</v>
+        <v>391894</v>
       </c>
       <c r="I10" t="n">
-        <v>461087</v>
+        <v>2283296.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>145535</v>
+        <v>37528</v>
       </c>
       <c r="C11" t="n">
-        <v>87336</v>
-      </c>
-      <c r="D11" t="n">
-        <v>60729</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4705</v>
-      </c>
+        <v>20899</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>464886</v>
-      </c>
-      <c r="G11" t="n">
-        <v>60729</v>
-      </c>
+        <v>273252</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>282927</v>
-      </c>
-      <c r="I11" t="n">
-        <v>703784</v>
-      </c>
+        <v>190874</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>143753</v>
+        <v>38402</v>
       </c>
       <c r="C12" t="n">
-        <v>74417</v>
-      </c>
-      <c r="D12" t="n">
-        <v>53064</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6185</v>
-      </c>
+        <v>12372</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>395088</v>
-      </c>
-      <c r="G12" t="n">
-        <v>53064</v>
-      </c>
+        <v>267275</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>259973</v>
-      </c>
-      <c r="I12" t="n">
-        <v>631831</v>
-      </c>
+        <v>155687</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>151035</v>
+        <v>20041</v>
       </c>
       <c r="C13" t="n">
-        <v>56911</v>
-      </c>
-      <c r="D13" t="n">
-        <v>61590</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9279</v>
-      </c>
+        <v>8766</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>451513</v>
+        <v>230060</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>178232</v>
-      </c>
-      <c r="I13" t="n">
-        <v>514225</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>92086</v>
-      </c>
-      <c r="C14" t="n">
-        <v>51180</v>
-      </c>
-      <c r="D14" t="n">
-        <v>171252</v>
-      </c>
-      <c r="E14" t="n">
-        <v>18291</v>
-      </c>
-      <c r="F14" t="n">
-        <v>342550</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>260513</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3727402.63</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>69353</v>
-      </c>
-      <c r="C15" t="n">
-        <v>38500</v>
-      </c>
-      <c r="D15" t="n">
-        <v>26218</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4021</v>
-      </c>
-      <c r="F15" t="n">
-        <v>302532</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>257559</v>
-      </c>
-      <c r="I15" t="n">
-        <v>462179.868164063</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>74677</v>
-      </c>
-      <c r="C16" t="n">
-        <v>37153</v>
-      </c>
-      <c r="D16" t="n">
-        <v>29758</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>289570</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>141209</v>
-      </c>
-      <c r="I16" t="n">
-        <v>194590.068359375</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>67030</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1190135</v>
-      </c>
-      <c r="D17" t="n">
-        <v>48399</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>1415284</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>114822</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1230860.8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>59849</v>
-      </c>
-      <c r="C18" t="n">
-        <v>35184</v>
-      </c>
-      <c r="D18" t="n">
-        <v>25841</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>247700</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>205487</v>
-      </c>
-      <c r="I18" t="n">
-        <v>904223.4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>41369</v>
-      </c>
-      <c r="C19" t="n">
-        <v>29728</v>
-      </c>
-      <c r="D19" t="n">
-        <v>646724</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>252033</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>266511</v>
-      </c>
-      <c r="I19" t="n">
-        <v>770524.8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>38246</v>
-      </c>
-      <c r="C20" t="n">
-        <v>22039</v>
-      </c>
-      <c r="D20" t="n">
-        <v>5006048</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>264558</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>391894</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2283296.9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>37528</v>
-      </c>
-      <c r="C21" t="n">
-        <v>20899</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>273252</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>190874</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>38402</v>
-      </c>
-      <c r="C22" t="n">
-        <v>12372</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>267275</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
-        <v>155687</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>289980</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
